--- a/nvidia04092024returnprofile.xlsx
+++ b/nvidia04092024returnprofile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Djafari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Djafari\Documents\GitHub\DemonEyesShmoney.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C9072-5685-4BD8-820D-0D471BA78308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B77125-E32B-4CC1-8980-58594C5CBCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A46B53B-6F33-4ECD-B84E-3EF29547D4EB}"/>
+    <workbookView xWindow="1545" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{6A46B53B-6F33-4ECD-B84E-3EF29547D4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -195,10 +195,6 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -566,7 +562,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,11 +647,11 @@
         <v>1000</v>
       </c>
       <c r="H2" s="3">
-        <f>E2*G2</f>
+        <f t="shared" ref="H2:H8" si="0">E2*G2</f>
         <v>5000</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I7" si="0">H2-(100*(E2*F2))</f>
+        <f t="shared" ref="I2:I7" si="1">H2-(100*(E2*F2))</f>
         <v>2355</v>
       </c>
       <c r="J2" s="5">
@@ -684,33 +680,33 @@
         <v>950</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2">
-        <v>3.85</v>
+        <v>4.62</v>
       </c>
       <c r="G3" s="2">
         <f>(C3-D3)*100</f>
         <v>500</v>
       </c>
       <c r="H3" s="3">
-        <f>E3*G3</f>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>6500</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="0"/>
-        <v>345</v>
+        <f t="shared" si="1"/>
+        <v>494</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J8" si="1">(F3*E3)*100</f>
-        <v>1155</v>
+        <f t="shared" ref="J3:J8" si="2">(F3*E3)*100</f>
+        <v>6006</v>
       </c>
       <c r="K3" s="2">
         <v>4.93</v>
       </c>
       <c r="L3" s="6">
-        <f t="shared" ref="L3:L8" si="2">(K3*E3)*100</f>
-        <v>1479</v>
+        <f t="shared" ref="L3:L8" si="3">(K3*E3)*100</f>
+        <v>6409</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -737,22 +733,22 @@
         <v>500</v>
       </c>
       <c r="H4" s="3">
-        <f>E4*G4</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>305</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="K4" s="2">
         <v>2.4500000000000002</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>245.00000000000003</v>
       </c>
     </row>
@@ -776,26 +772,26 @@
         <v>5.54</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G8" si="3">(C5-D5)*100</f>
+        <f t="shared" ref="G5:G8" si="4">(C5-D5)*100</f>
         <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <f>E5*G5</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1338</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1662</v>
       </c>
       <c r="K5" s="2">
         <v>6.35</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1904.9999999999998</v>
       </c>
     </row>
@@ -819,26 +815,26 @@
         <v>4.87</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="H6" s="3">
-        <f>E6*G6</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1539</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1461</v>
       </c>
       <c r="K6" s="2">
         <v>6.17</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1850.9999999999998</v>
       </c>
     </row>
@@ -862,26 +858,26 @@
         <v>7.97</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000</v>
       </c>
       <c r="H7" s="3">
-        <f>E7*G7</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>609</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2391</v>
       </c>
       <c r="K7" s="2">
         <v>8.35</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2504.9999999999995</v>
       </c>
     </row>
@@ -905,11 +901,11 @@
         <v>3.44</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H8" s="3">
-        <f>E8*G8</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I8" s="4">
@@ -917,14 +913,14 @@
         <v>624</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1376</v>
       </c>
       <c r="K8" s="2">
         <v>4.7300000000000004</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1892.0000000000002</v>
       </c>
     </row>
@@ -984,21 +980,21 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <f>SUM(H2:H8)</f>
-        <v>18000</v>
-      </c>
-      <c r="J15" s="8">
+        <v>23000</v>
+      </c>
+      <c r="J15" s="4">
         <f>SUM(I2:I9)</f>
-        <v>7126.6</v>
-      </c>
-      <c r="K15" s="9">
+        <v>7275.6</v>
+      </c>
+      <c r="K15" s="5">
         <f>SUM(J2:J9)</f>
-        <v>19725</v>
-      </c>
-      <c r="L15" s="10">
+        <v>24576</v>
+      </c>
+      <c r="L15" s="6">
         <f>SUM(L2:L9)</f>
-        <v>23682</v>
+        <v>28612</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.25">

--- a/nvidia04092024returnprofile.xlsx
+++ b/nvidia04092024returnprofile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Djafari\Documents\GitHub\DemonEyesShmoney.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B77125-E32B-4CC1-8980-58594C5CBCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FEF829-18D6-4FB6-882F-957B8A74A450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{6A46B53B-6F33-4ECD-B84E-3EF29547D4EB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A46B53B-6F33-4ECD-B84E-3EF29547D4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +680,10 @@
         <v>950</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>4.62</v>
+        <v>3.85</v>
       </c>
       <c r="G3" s="2">
         <f>(C3-D3)*100</f>
@@ -691,22 +691,22 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>1500</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>494</v>
+        <v>345</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J8" si="2">(F3*E3)*100</f>
-        <v>6006</v>
+        <v>1155</v>
       </c>
       <c r="K3" s="2">
         <v>4.93</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ref="L3:L8" si="3">(K3*E3)*100</f>
-        <v>6409</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -982,19 +982,19 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I15" s="3">
         <f>SUM(H2:H8)</f>
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="J15" s="4">
         <f>SUM(I2:I9)</f>
-        <v>7275.6</v>
+        <v>7126.6</v>
       </c>
       <c r="K15" s="5">
         <f>SUM(J2:J9)</f>
-        <v>24576</v>
+        <v>19725</v>
       </c>
       <c r="L15" s="6">
         <f>SUM(L2:L9)</f>
-        <v>28612</v>
+        <v>23682</v>
       </c>
     </row>
     <row r="28" spans="11:11" x14ac:dyDescent="0.25">
